--- a/To-do List - Progress Tracker.xlsx
+++ b/To-do List - Progress Tracker.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="150" windowWidth="13395" windowHeight="4935"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Task</t>
   </si>
@@ -106,13 +106,22 @@
   </si>
   <si>
     <t>Server</t>
+  </si>
+  <si>
+    <t>Setup Azure account</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>Install Azure SDK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,6 +332,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -401,6 +415,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -435,6 +450,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -610,27 +626,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E1" s="1">
         <f ca="1">NOW()</f>
-        <v>41069.639564930556</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="33.75">
+        <v>41073.468588310185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -639,7 +655,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="18.75">
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -648,14 +664,14 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="26.25" thickBot="1">
+    <row r="5" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>1</v>
       </c>
@@ -672,7 +688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -683,7 +699,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>1</v>
       </c>
@@ -698,7 +714,7 @@
       </c>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>2</v>
       </c>
@@ -707,7 +723,7 @@
       <c r="D8" s="26"/>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -716,7 +732,7 @@
       <c r="D9" s="25"/>
       <c r="E9" s="16"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>4</v>
       </c>
@@ -725,7 +741,7 @@
       <c r="D10" s="26"/>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -734,7 +750,7 @@
       <c r="D11" s="25"/>
       <c r="E11" s="16"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>6</v>
       </c>
@@ -743,7 +759,7 @@
       <c r="D12" s="26"/>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -752,7 +768,7 @@
       <c r="D13" s="25"/>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>8</v>
       </c>
@@ -761,7 +777,7 @@
       <c r="D14" s="26"/>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>9</v>
       </c>
@@ -770,7 +786,7 @@
       <c r="D15" s="25"/>
       <c r="E15" s="16"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29">
         <v>10</v>
       </c>
@@ -779,7 +795,7 @@
       <c r="D16" s="26"/>
       <c r="E16" s="17"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>12</v>
       </c>
@@ -790,7 +806,7 @@
       <c r="D17" s="27"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>1</v>
       </c>
@@ -807,7 +823,7 @@
         <v>41069</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <v>2</v>
       </c>
@@ -820,7 +836,7 @@
       <c r="D19" s="26"/>
       <c r="E19" s="19"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>3</v>
       </c>
@@ -829,7 +845,7 @@
       <c r="D20" s="25"/>
       <c r="E20" s="18"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <v>4</v>
       </c>
@@ -838,7 +854,7 @@
       <c r="D21" s="26"/>
       <c r="E21" s="19"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>5</v>
       </c>
@@ -847,7 +863,7 @@
       <c r="D22" s="25"/>
       <c r="E22" s="18"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <v>6</v>
       </c>
@@ -856,7 +872,7 @@
       <c r="D23" s="26"/>
       <c r="E23" s="19"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>7</v>
       </c>
@@ -865,7 +881,7 @@
       <c r="D24" s="25"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <v>8</v>
       </c>
@@ -874,7 +890,7 @@
       <c r="D25" s="26"/>
       <c r="E25" s="19"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>9</v>
       </c>
@@ -883,7 +899,7 @@
       <c r="D26" s="25"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1">
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29">
         <v>10</v>
       </c>
@@ -892,7 +908,7 @@
       <c r="D27" s="26"/>
       <c r="E27" s="19"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
         <v>15</v>
       </c>
@@ -903,7 +919,7 @@
       <c r="D28" s="27"/>
       <c r="E28" s="20"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="28">
         <v>1</v>
       </c>
@@ -912,7 +928,7 @@
       <c r="D29" s="25"/>
       <c r="E29" s="18"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>2</v>
       </c>
@@ -921,7 +937,7 @@
       <c r="D30" s="26"/>
       <c r="E30" s="19"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="28">
         <v>3</v>
       </c>
@@ -930,7 +946,7 @@
       <c r="D31" s="25"/>
       <c r="E31" s="21"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="29">
         <v>4</v>
       </c>
@@ -939,7 +955,7 @@
       <c r="D32" s="26"/>
       <c r="E32" s="22"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="28">
         <v>5</v>
       </c>
@@ -948,7 +964,7 @@
       <c r="D33" s="25"/>
       <c r="E33" s="21"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="29">
         <v>6</v>
       </c>
@@ -957,7 +973,7 @@
       <c r="D34" s="26"/>
       <c r="E34" s="22"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="28">
         <v>7</v>
       </c>
@@ -966,7 +982,7 @@
       <c r="D35" s="25"/>
       <c r="E35" s="21"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="29">
         <v>8</v>
       </c>
@@ -975,7 +991,7 @@
       <c r="D36" s="26"/>
       <c r="E36" s="22"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="28">
         <v>9</v>
       </c>
@@ -984,7 +1000,7 @@
       <c r="D37" s="25"/>
       <c r="E37" s="21"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1">
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="29">
         <v>10</v>
       </c>
@@ -993,7 +1009,7 @@
       <c r="D38" s="26"/>
       <c r="E38" s="22"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1">
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="30" t="s">
         <v>10</v>
       </c>
@@ -1004,7 +1020,7 @@
       <c r="D39" s="27"/>
       <c r="E39" s="20"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="28">
         <v>1</v>
       </c>
@@ -1021,7 +1037,7 @@
         <v>41069</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="29">
         <v>2</v>
       </c>
@@ -1038,7 +1054,7 @@
         <v>41069</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="28">
         <v>3</v>
       </c>
@@ -1055,7 +1071,7 @@
         <v>41069</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="29">
         <v>4</v>
       </c>
@@ -1064,7 +1080,7 @@
       <c r="D43" s="26"/>
       <c r="E43" s="22"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="28">
         <v>5</v>
       </c>
@@ -1073,7 +1089,7 @@
       <c r="D44" s="25"/>
       <c r="E44" s="21"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="29">
         <v>6</v>
       </c>
@@ -1082,7 +1098,7 @@
       <c r="D45" s="26"/>
       <c r="E45" s="22"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="28">
         <v>7</v>
       </c>
@@ -1091,7 +1107,7 @@
       <c r="D46" s="25"/>
       <c r="E46" s="21"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="29">
         <v>8</v>
       </c>
@@ -1100,7 +1116,7 @@
       <c r="D47" s="26"/>
       <c r="E47" s="22"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="28">
         <v>9</v>
       </c>
@@ -1109,7 +1125,7 @@
       <c r="D48" s="25"/>
       <c r="E48" s="21"/>
     </row>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1">
+    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="29">
         <v>10</v>
       </c>
@@ -1118,7 +1134,7 @@
       <c r="D49" s="26"/>
       <c r="E49" s="22"/>
     </row>
-    <row r="50" spans="1:5" ht="15.75" thickBot="1">
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="30" t="s">
         <v>16</v>
       </c>
@@ -1129,7 +1145,7 @@
       <c r="D50" s="27"/>
       <c r="E50" s="20"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="28">
         <v>1</v>
       </c>
@@ -1140,7 +1156,7 @@
       <c r="D51" s="25"/>
       <c r="E51" s="18"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="29">
         <v>2</v>
       </c>
@@ -1151,7 +1167,7 @@
       <c r="D52" s="26"/>
       <c r="E52" s="19"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="28">
         <v>3</v>
       </c>
@@ -1162,7 +1178,7 @@
       <c r="D53" s="25"/>
       <c r="E53" s="21"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="29">
         <v>4</v>
       </c>
@@ -1171,7 +1187,7 @@
       <c r="D54" s="26"/>
       <c r="E54" s="22"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="28">
         <v>5</v>
       </c>
@@ -1180,7 +1196,7 @@
       <c r="D55" s="25"/>
       <c r="E55" s="21"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="29">
         <v>6</v>
       </c>
@@ -1189,7 +1205,7 @@
       <c r="D56" s="26"/>
       <c r="E56" s="22"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="28">
         <v>7</v>
       </c>
@@ -1198,7 +1214,7 @@
       <c r="D57" s="25"/>
       <c r="E57" s="21"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="29">
         <v>8</v>
       </c>
@@ -1207,7 +1223,7 @@
       <c r="D58" s="26"/>
       <c r="E58" s="22"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="28">
         <v>9</v>
       </c>
@@ -1216,7 +1232,7 @@
       <c r="D59" s="25"/>
       <c r="E59" s="21"/>
     </row>
-    <row r="60" spans="1:5" ht="15.75" thickBot="1">
+    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="29">
         <v>10</v>
       </c>
@@ -1225,7 +1241,7 @@
       <c r="D60" s="26"/>
       <c r="E60" s="22"/>
     </row>
-    <row r="61" spans="1:5" ht="15.75" thickBot="1">
+    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="30" t="s">
         <v>16</v>
       </c>
@@ -1236,25 +1252,37 @@
       <c r="D61" s="27"/>
       <c r="E61" s="20"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="28">
         <v>1</v>
       </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="18"/>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="B62" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" s="25">
+        <v>1</v>
+      </c>
+      <c r="E62" s="18">
+        <v>41073</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="29">
         <v>2</v>
       </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="12"/>
+      <c r="B63" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="D63" s="26"/>
       <c r="E63" s="19"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="28">
         <v>3</v>
       </c>
@@ -1263,7 +1291,7 @@
       <c r="D64" s="25"/>
       <c r="E64" s="21"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="29">
         <v>4</v>
       </c>
@@ -1272,7 +1300,7 @@
       <c r="D65" s="26"/>
       <c r="E65" s="22"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="28">
         <v>5</v>
       </c>
@@ -1281,7 +1309,7 @@
       <c r="D66" s="25"/>
       <c r="E66" s="21"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="29">
         <v>6</v>
       </c>
@@ -1290,7 +1318,7 @@
       <c r="D67" s="26"/>
       <c r="E67" s="22"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="28">
         <v>7</v>
       </c>
@@ -1299,7 +1327,7 @@
       <c r="D68" s="25"/>
       <c r="E68" s="21"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="29">
         <v>8</v>
       </c>
@@ -1308,7 +1336,7 @@
       <c r="D69" s="26"/>
       <c r="E69" s="22"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="28">
         <v>9</v>
       </c>
@@ -1317,7 +1345,7 @@
       <c r="D70" s="25"/>
       <c r="E70" s="21"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="29">
         <v>10</v>
       </c>
@@ -1333,24 +1361,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/To-do List - Progress Tracker.xlsx
+++ b/To-do List - Progress Tracker.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="150" windowWidth="13395" windowHeight="4935"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Task</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>% Complete</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Adding CRUD functionality</t>
@@ -120,8 +117,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,7 +412,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -450,7 +446,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -626,27 +621,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="E1" s="1">
         <f ca="1">NOW()</f>
-        <v>41073.468588310185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
+        <v>41073.805976157404</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="33.75">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -655,7 +650,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18.75">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -664,14 +659,14 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="26.25" thickBot="1">
       <c r="A5" s="23" t="s">
         <v>1</v>
       </c>
@@ -688,7 +683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -699,7 +694,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="28">
         <v>1</v>
       </c>
@@ -714,7 +709,7 @@
       </c>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="29">
         <v>2</v>
       </c>
@@ -723,7 +718,7 @@
       <c r="D8" s="26"/>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -732,7 +727,7 @@
       <c r="D9" s="25"/>
       <c r="E9" s="16"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="29">
         <v>4</v>
       </c>
@@ -741,7 +736,7 @@
       <c r="D10" s="26"/>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -750,7 +745,7 @@
       <c r="D11" s="25"/>
       <c r="E11" s="16"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="29">
         <v>6</v>
       </c>
@@ -759,7 +754,7 @@
       <c r="D12" s="26"/>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -768,7 +763,7 @@
       <c r="D13" s="25"/>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="29">
         <v>8</v>
       </c>
@@ -777,7 +772,7 @@
       <c r="D14" s="26"/>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="28">
         <v>9</v>
       </c>
@@ -786,7 +781,7 @@
       <c r="D15" s="25"/>
       <c r="E15" s="16"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1">
       <c r="A16" s="29">
         <v>10</v>
       </c>
@@ -795,7 +790,7 @@
       <c r="D16" s="26"/>
       <c r="E16" s="17"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1">
       <c r="A17" s="30" t="s">
         <v>12</v>
       </c>
@@ -806,7 +801,7 @@
       <c r="D17" s="27"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="28">
         <v>1</v>
       </c>
@@ -816,14 +811,14 @@
       <c r="C18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="25" t="s">
-        <v>22</v>
+      <c r="D18" s="25">
+        <v>1</v>
       </c>
       <c r="E18" s="18">
         <v>41069</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="29">
         <v>2</v>
       </c>
@@ -836,7 +831,7 @@
       <c r="D19" s="26"/>
       <c r="E19" s="19"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="28">
         <v>3</v>
       </c>
@@ -845,7 +840,7 @@
       <c r="D20" s="25"/>
       <c r="E20" s="18"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="29">
         <v>4</v>
       </c>
@@ -854,7 +849,7 @@
       <c r="D21" s="26"/>
       <c r="E21" s="19"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="28">
         <v>5</v>
       </c>
@@ -863,7 +858,7 @@
       <c r="D22" s="25"/>
       <c r="E22" s="18"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="29">
         <v>6</v>
       </c>
@@ -872,7 +867,7 @@
       <c r="D23" s="26"/>
       <c r="E23" s="19"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="28">
         <v>7</v>
       </c>
@@ -881,7 +876,7 @@
       <c r="D24" s="25"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="29">
         <v>8</v>
       </c>
@@ -890,7 +885,7 @@
       <c r="D25" s="26"/>
       <c r="E25" s="19"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="28">
         <v>9</v>
       </c>
@@ -899,7 +894,7 @@
       <c r="D26" s="25"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15.75" thickBot="1">
       <c r="A27" s="29">
         <v>10</v>
       </c>
@@ -908,7 +903,7 @@
       <c r="D27" s="26"/>
       <c r="E27" s="19"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1">
       <c r="A28" s="30" t="s">
         <v>15</v>
       </c>
@@ -919,7 +914,7 @@
       <c r="D28" s="27"/>
       <c r="E28" s="20"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="28">
         <v>1</v>
       </c>
@@ -928,7 +923,7 @@
       <c r="D29" s="25"/>
       <c r="E29" s="18"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="29">
         <v>2</v>
       </c>
@@ -937,7 +932,7 @@
       <c r="D30" s="26"/>
       <c r="E30" s="19"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="28">
         <v>3</v>
       </c>
@@ -946,7 +941,7 @@
       <c r="D31" s="25"/>
       <c r="E31" s="21"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="29">
         <v>4</v>
       </c>
@@ -955,7 +950,7 @@
       <c r="D32" s="26"/>
       <c r="E32" s="22"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="28">
         <v>5</v>
       </c>
@@ -964,7 +959,7 @@
       <c r="D33" s="25"/>
       <c r="E33" s="21"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="29">
         <v>6</v>
       </c>
@@ -973,7 +968,7 @@
       <c r="D34" s="26"/>
       <c r="E34" s="22"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="28">
         <v>7</v>
       </c>
@@ -982,7 +977,7 @@
       <c r="D35" s="25"/>
       <c r="E35" s="21"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="29">
         <v>8</v>
       </c>
@@ -991,7 +986,7 @@
       <c r="D36" s="26"/>
       <c r="E36" s="22"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="28">
         <v>9</v>
       </c>
@@ -1000,7 +995,7 @@
       <c r="D37" s="25"/>
       <c r="E37" s="21"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15.75" thickBot="1">
       <c r="A38" s="29">
         <v>10</v>
       </c>
@@ -1009,7 +1004,7 @@
       <c r="D38" s="26"/>
       <c r="E38" s="22"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="15.75" thickBot="1">
       <c r="A39" s="30" t="s">
         <v>10</v>
       </c>
@@ -1020,7 +1015,7 @@
       <c r="D39" s="27"/>
       <c r="E39" s="20"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="28">
         <v>1</v>
       </c>
@@ -1037,12 +1032,12 @@
         <v>41069</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="29">
         <v>2</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>19</v>
@@ -1054,12 +1049,12 @@
         <v>41069</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="28">
         <v>3</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>19</v>
@@ -1071,7 +1066,7 @@
         <v>41069</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="29">
         <v>4</v>
       </c>
@@ -1080,7 +1075,7 @@
       <c r="D43" s="26"/>
       <c r="E43" s="22"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="28">
         <v>5</v>
       </c>
@@ -1089,7 +1084,7 @@
       <c r="D44" s="25"/>
       <c r="E44" s="21"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="29">
         <v>6</v>
       </c>
@@ -1098,7 +1093,7 @@
       <c r="D45" s="26"/>
       <c r="E45" s="22"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="28">
         <v>7</v>
       </c>
@@ -1107,7 +1102,7 @@
       <c r="D46" s="25"/>
       <c r="E46" s="21"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="29">
         <v>8</v>
       </c>
@@ -1116,7 +1111,7 @@
       <c r="D47" s="26"/>
       <c r="E47" s="22"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="28">
         <v>9</v>
       </c>
@@ -1125,7 +1120,7 @@
       <c r="D48" s="25"/>
       <c r="E48" s="21"/>
     </row>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="15.75" thickBot="1">
       <c r="A49" s="29">
         <v>10</v>
       </c>
@@ -1134,51 +1129,51 @@
       <c r="D49" s="26"/>
       <c r="E49" s="22"/>
     </row>
-    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="15.75" thickBot="1">
       <c r="A50" s="30" t="s">
         <v>16</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="27"/>
       <c r="E50" s="20"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="28">
         <v>1</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="25"/>
       <c r="E51" s="18"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="29">
         <v>2</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="26"/>
       <c r="E52" s="19"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="28">
         <v>3</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="25"/>
       <c r="E53" s="21"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="29">
         <v>4</v>
       </c>
@@ -1187,7 +1182,7 @@
       <c r="D54" s="26"/>
       <c r="E54" s="22"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="28">
         <v>5</v>
       </c>
@@ -1196,7 +1191,7 @@
       <c r="D55" s="25"/>
       <c r="E55" s="21"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="29">
         <v>6</v>
       </c>
@@ -1205,7 +1200,7 @@
       <c r="D56" s="26"/>
       <c r="E56" s="22"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="28">
         <v>7</v>
       </c>
@@ -1214,7 +1209,7 @@
       <c r="D57" s="25"/>
       <c r="E57" s="21"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="29">
         <v>8</v>
       </c>
@@ -1223,7 +1218,7 @@
       <c r="D58" s="26"/>
       <c r="E58" s="22"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="28">
         <v>9</v>
       </c>
@@ -1232,7 +1227,7 @@
       <c r="D59" s="25"/>
       <c r="E59" s="21"/>
     </row>
-    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="15.75" thickBot="1">
       <c r="A60" s="29">
         <v>10</v>
       </c>
@@ -1241,26 +1236,26 @@
       <c r="D60" s="26"/>
       <c r="E60" s="22"/>
     </row>
-    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="15.75" thickBot="1">
       <c r="A61" s="30" t="s">
         <v>16</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="27"/>
       <c r="E61" s="20"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="28">
         <v>1</v>
       </c>
       <c r="B62" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="D62" s="25">
         <v>1</v>
@@ -1269,12 +1264,12 @@
         <v>41073</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" s="29">
         <v>2</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>7</v>
@@ -1282,7 +1277,7 @@
       <c r="D63" s="26"/>
       <c r="E63" s="19"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" s="28">
         <v>3</v>
       </c>
@@ -1291,7 +1286,7 @@
       <c r="D64" s="25"/>
       <c r="E64" s="21"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" s="29">
         <v>4</v>
       </c>
@@ -1300,7 +1295,7 @@
       <c r="D65" s="26"/>
       <c r="E65" s="22"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" s="28">
         <v>5</v>
       </c>
@@ -1309,7 +1304,7 @@
       <c r="D66" s="25"/>
       <c r="E66" s="21"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" s="29">
         <v>6</v>
       </c>
@@ -1318,7 +1313,7 @@
       <c r="D67" s="26"/>
       <c r="E67" s="22"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" s="28">
         <v>7</v>
       </c>
@@ -1327,7 +1322,7 @@
       <c r="D68" s="25"/>
       <c r="E68" s="21"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" s="29">
         <v>8</v>
       </c>
@@ -1336,7 +1331,7 @@
       <c r="D69" s="26"/>
       <c r="E69" s="22"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" s="28">
         <v>9</v>
       </c>
@@ -1345,7 +1340,7 @@
       <c r="D70" s="25"/>
       <c r="E70" s="21"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" s="29">
         <v>10</v>
       </c>
@@ -1361,24 +1356,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/To-do List - Progress Tracker.xlsx
+++ b/To-do List - Progress Tracker.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="150" windowWidth="13395" windowHeight="4935"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -117,8 +117,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,6 +412,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -446,6 +447,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -621,27 +623,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E1" s="1">
         <f ca="1">NOW()</f>
-        <v>41073.805976157404</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="33.75">
+        <v>41073.809286805554</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -650,7 +652,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="18.75">
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -659,14 +661,14 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="26.25" thickBot="1">
+    <row r="5" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>1</v>
       </c>
@@ -683,7 +685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -694,7 +696,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>1</v>
       </c>
@@ -709,7 +711,7 @@
       </c>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>2</v>
       </c>
@@ -718,7 +720,7 @@
       <c r="D8" s="26"/>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -727,7 +729,7 @@
       <c r="D9" s="25"/>
       <c r="E9" s="16"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>4</v>
       </c>
@@ -736,7 +738,7 @@
       <c r="D10" s="26"/>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -745,7 +747,7 @@
       <c r="D11" s="25"/>
       <c r="E11" s="16"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>6</v>
       </c>
@@ -754,7 +756,7 @@
       <c r="D12" s="26"/>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -763,7 +765,7 @@
       <c r="D13" s="25"/>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>8</v>
       </c>
@@ -772,7 +774,7 @@
       <c r="D14" s="26"/>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>9</v>
       </c>
@@ -781,7 +783,7 @@
       <c r="D15" s="25"/>
       <c r="E15" s="16"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29">
         <v>10</v>
       </c>
@@ -790,7 +792,7 @@
       <c r="D16" s="26"/>
       <c r="E16" s="17"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>12</v>
       </c>
@@ -801,7 +803,7 @@
       <c r="D17" s="27"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>1</v>
       </c>
@@ -818,7 +820,7 @@
         <v>41069</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <v>2</v>
       </c>
@@ -831,7 +833,7 @@
       <c r="D19" s="26"/>
       <c r="E19" s="19"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>3</v>
       </c>
@@ -840,7 +842,7 @@
       <c r="D20" s="25"/>
       <c r="E20" s="18"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <v>4</v>
       </c>
@@ -849,7 +851,7 @@
       <c r="D21" s="26"/>
       <c r="E21" s="19"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>5</v>
       </c>
@@ -858,7 +860,7 @@
       <c r="D22" s="25"/>
       <c r="E22" s="18"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <v>6</v>
       </c>
@@ -867,7 +869,7 @@
       <c r="D23" s="26"/>
       <c r="E23" s="19"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>7</v>
       </c>
@@ -876,7 +878,7 @@
       <c r="D24" s="25"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <v>8</v>
       </c>
@@ -885,7 +887,7 @@
       <c r="D25" s="26"/>
       <c r="E25" s="19"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>9</v>
       </c>
@@ -894,7 +896,7 @@
       <c r="D26" s="25"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1">
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29">
         <v>10</v>
       </c>
@@ -903,7 +905,7 @@
       <c r="D27" s="26"/>
       <c r="E27" s="19"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
         <v>15</v>
       </c>
@@ -914,7 +916,7 @@
       <c r="D28" s="27"/>
       <c r="E28" s="20"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="28">
         <v>1</v>
       </c>
@@ -923,7 +925,7 @@
       <c r="D29" s="25"/>
       <c r="E29" s="18"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>2</v>
       </c>
@@ -932,7 +934,7 @@
       <c r="D30" s="26"/>
       <c r="E30" s="19"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="28">
         <v>3</v>
       </c>
@@ -941,7 +943,7 @@
       <c r="D31" s="25"/>
       <c r="E31" s="21"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="29">
         <v>4</v>
       </c>
@@ -950,7 +952,7 @@
       <c r="D32" s="26"/>
       <c r="E32" s="22"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="28">
         <v>5</v>
       </c>
@@ -959,7 +961,7 @@
       <c r="D33" s="25"/>
       <c r="E33" s="21"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="29">
         <v>6</v>
       </c>
@@ -968,7 +970,7 @@
       <c r="D34" s="26"/>
       <c r="E34" s="22"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="28">
         <v>7</v>
       </c>
@@ -977,7 +979,7 @@
       <c r="D35" s="25"/>
       <c r="E35" s="21"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="29">
         <v>8</v>
       </c>
@@ -986,7 +988,7 @@
       <c r="D36" s="26"/>
       <c r="E36" s="22"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="28">
         <v>9</v>
       </c>
@@ -995,7 +997,7 @@
       <c r="D37" s="25"/>
       <c r="E37" s="21"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1">
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="29">
         <v>10</v>
       </c>
@@ -1004,7 +1006,7 @@
       <c r="D38" s="26"/>
       <c r="E38" s="22"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1">
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="30" t="s">
         <v>10</v>
       </c>
@@ -1015,7 +1017,7 @@
       <c r="D39" s="27"/>
       <c r="E39" s="20"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="28">
         <v>1</v>
       </c>
@@ -1032,7 +1034,7 @@
         <v>41069</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="29">
         <v>2</v>
       </c>
@@ -1049,7 +1051,7 @@
         <v>41069</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="28">
         <v>3</v>
       </c>
@@ -1066,7 +1068,7 @@
         <v>41069</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="29">
         <v>4</v>
       </c>
@@ -1075,7 +1077,7 @@
       <c r="D43" s="26"/>
       <c r="E43" s="22"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="28">
         <v>5</v>
       </c>
@@ -1084,7 +1086,7 @@
       <c r="D44" s="25"/>
       <c r="E44" s="21"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="29">
         <v>6</v>
       </c>
@@ -1093,7 +1095,7 @@
       <c r="D45" s="26"/>
       <c r="E45" s="22"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="28">
         <v>7</v>
       </c>
@@ -1102,7 +1104,7 @@
       <c r="D46" s="25"/>
       <c r="E46" s="21"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="29">
         <v>8</v>
       </c>
@@ -1111,7 +1113,7 @@
       <c r="D47" s="26"/>
       <c r="E47" s="22"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="28">
         <v>9</v>
       </c>
@@ -1120,7 +1122,7 @@
       <c r="D48" s="25"/>
       <c r="E48" s="21"/>
     </row>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1">
+    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="29">
         <v>10</v>
       </c>
@@ -1129,7 +1131,7 @@
       <c r="D49" s="26"/>
       <c r="E49" s="22"/>
     </row>
-    <row r="50" spans="1:5" ht="15.75" thickBot="1">
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="30" t="s">
         <v>16</v>
       </c>
@@ -1140,7 +1142,7 @@
       <c r="D50" s="27"/>
       <c r="E50" s="20"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="28">
         <v>1</v>
       </c>
@@ -1151,7 +1153,7 @@
       <c r="D51" s="25"/>
       <c r="E51" s="18"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="29">
         <v>2</v>
       </c>
@@ -1162,7 +1164,7 @@
       <c r="D52" s="26"/>
       <c r="E52" s="19"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="28">
         <v>3</v>
       </c>
@@ -1173,7 +1175,7 @@
       <c r="D53" s="25"/>
       <c r="E53" s="21"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="29">
         <v>4</v>
       </c>
@@ -1182,7 +1184,7 @@
       <c r="D54" s="26"/>
       <c r="E54" s="22"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="28">
         <v>5</v>
       </c>
@@ -1191,7 +1193,7 @@
       <c r="D55" s="25"/>
       <c r="E55" s="21"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="29">
         <v>6</v>
       </c>
@@ -1200,7 +1202,7 @@
       <c r="D56" s="26"/>
       <c r="E56" s="22"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="28">
         <v>7</v>
       </c>
@@ -1209,7 +1211,7 @@
       <c r="D57" s="25"/>
       <c r="E57" s="21"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="29">
         <v>8</v>
       </c>
@@ -1218,7 +1220,7 @@
       <c r="D58" s="26"/>
       <c r="E58" s="22"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="28">
         <v>9</v>
       </c>
@@ -1227,7 +1229,7 @@
       <c r="D59" s="25"/>
       <c r="E59" s="21"/>
     </row>
-    <row r="60" spans="1:5" ht="15.75" thickBot="1">
+    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="29">
         <v>10</v>
       </c>
@@ -1236,7 +1238,7 @@
       <c r="D60" s="26"/>
       <c r="E60" s="22"/>
     </row>
-    <row r="61" spans="1:5" ht="15.75" thickBot="1">
+    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="30" t="s">
         <v>16</v>
       </c>
@@ -1247,7 +1249,7 @@
       <c r="D61" s="27"/>
       <c r="E61" s="20"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="28">
         <v>1</v>
       </c>
@@ -1264,7 +1266,7 @@
         <v>41073</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="29">
         <v>2</v>
       </c>
@@ -1274,10 +1276,12 @@
       <c r="C63" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="26"/>
+      <c r="D63" s="26">
+        <v>0.5</v>
+      </c>
       <c r="E63" s="19"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="28">
         <v>3</v>
       </c>
@@ -1286,7 +1290,7 @@
       <c r="D64" s="25"/>
       <c r="E64" s="21"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="29">
         <v>4</v>
       </c>
@@ -1295,7 +1299,7 @@
       <c r="D65" s="26"/>
       <c r="E65" s="22"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="28">
         <v>5</v>
       </c>
@@ -1304,7 +1308,7 @@
       <c r="D66" s="25"/>
       <c r="E66" s="21"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="29">
         <v>6</v>
       </c>
@@ -1313,7 +1317,7 @@
       <c r="D67" s="26"/>
       <c r="E67" s="22"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="28">
         <v>7</v>
       </c>
@@ -1322,7 +1326,7 @@
       <c r="D68" s="25"/>
       <c r="E68" s="21"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="29">
         <v>8</v>
       </c>
@@ -1331,7 +1335,7 @@
       <c r="D69" s="26"/>
       <c r="E69" s="22"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="28">
         <v>9</v>
       </c>
@@ -1340,7 +1344,7 @@
       <c r="D70" s="25"/>
       <c r="E70" s="21"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="29">
         <v>10</v>
       </c>
@@ -1356,24 +1360,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/To-do List - Progress Tracker.xlsx
+++ b/To-do List - Progress Tracker.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>Task</t>
   </si>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t>Install Azure SDK</t>
+  </si>
+  <si>
+    <t>Create Data model in RISE</t>
+  </si>
+  <si>
+    <t>AMC</t>
+  </si>
+  <si>
+    <t>Generate DB code from RISE</t>
+  </si>
+  <si>
+    <t>Create MVC4 Project and upload to Git</t>
   </si>
 </sst>
 </file>
@@ -626,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,7 +652,7 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E1" s="1">
         <f ca="1">NOW()</f>
-        <v>41073.809286805554</v>
+        <v>41074.442927199074</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
@@ -837,10 +849,16 @@
       <c r="A20" s="28">
         <v>3</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
+      <c r="B20" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="D20" s="25"/>
-      <c r="E20" s="18"/>
+      <c r="E20" s="18">
+        <v>41074</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
@@ -920,19 +938,33 @@
       <c r="A29" s="28">
         <v>1</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="18"/>
+      <c r="B29" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="25">
+        <v>1</v>
+      </c>
+      <c r="E29" s="18">
+        <v>41073</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>2</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
+      <c r="B30" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="D30" s="26"/>
-      <c r="E30" s="19"/>
+      <c r="E30" s="19">
+        <v>41074</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="28">

--- a/To-do List - Progress Tracker.xlsx
+++ b/To-do List - Progress Tracker.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>Task</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Create MVC4 Project and upload to Git</t>
+  </si>
+  <si>
+    <t>Add new Azure website</t>
   </si>
 </sst>
 </file>
@@ -638,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,7 +655,7 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E1" s="1">
         <f ca="1">NOW()</f>
-        <v>41074.442927199074</v>
+        <v>41074.514472106479</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
@@ -855,7 +858,9 @@
       <c r="C20" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="25"/>
+      <c r="D20" s="25">
+        <v>1</v>
+      </c>
       <c r="E20" s="18">
         <v>41074</v>
       </c>
@@ -1317,10 +1322,18 @@
       <c r="A64" s="28">
         <v>3</v>
       </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="21"/>
+      <c r="B64" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="25">
+        <v>1</v>
+      </c>
+      <c r="E64" s="18">
+        <v>41074</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="29">

--- a/To-do List - Progress Tracker.xlsx
+++ b/To-do List - Progress Tracker.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>Task</t>
   </si>
@@ -127,13 +127,43 @@
   </si>
   <si>
     <t>Add new Azure website</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Use LINQ builder to create schema</t>
+  </si>
+  <si>
+    <t>Design Use cases</t>
+  </si>
+  <si>
+    <t>Tidy up ward numbers vs. names</t>
+  </si>
+  <si>
+    <t>31/06/2012</t>
+  </si>
+  <si>
+    <t>Update main document with use cases</t>
+  </si>
+  <si>
+    <t>Identify Excel parser</t>
+  </si>
+  <si>
+    <t>Write parsers for elec. and contrib.</t>
+  </si>
+  <si>
+    <t>Investigate data storage on Azure</t>
+  </si>
+  <si>
+    <t>Write formal intro and content</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +197,14 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -248,9 +286,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -293,12 +330,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -308,12 +339,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -337,6 +362,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -642,761 +691,809 @@
   <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E1" s="1">
+      <c r="E1" s="31">
         <f ca="1">NOW()</f>
-        <v>41074.514472106479</v>
+        <v>41092.509014467592</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
+      <c r="A7" s="23">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="20">
         <v>0.85</v>
       </c>
-      <c r="E7" s="14"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="29">
+      <c r="A8" s="24">
         <v>2</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="15"/>
+      <c r="B8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
+      <c r="A9" s="23">
         <v>3</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="16"/>
+      <c r="B9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="15" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="29">
+      <c r="A10" s="24">
         <v>4</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="17"/>
+      <c r="B10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="16">
+        <v>41094</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
+      <c r="A11" s="23">
         <v>5</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="16"/>
+      <c r="B11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="13"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="29">
+      <c r="A12" s="24">
         <v>6</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="17"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
+      <c r="A13" s="23">
         <v>7</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="16"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="29">
+      <c r="A14" s="24">
         <v>8</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="17"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
+      <c r="A15" s="23">
         <v>9</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="16"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29">
+      <c r="A16" s="24">
         <v>10</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="17"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="14"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="8"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
+      <c r="A18" s="23">
         <v>1</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="20">
         <v>1</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="15">
         <v>41069</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="29">
+      <c r="A19" s="26">
         <v>2</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="19"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="28">
+      <c r="A20" s="23">
         <v>3</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="20">
         <v>1</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="15">
         <v>41074</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="29">
+      <c r="A21" s="24">
         <v>4</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="19"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="16"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="28">
+      <c r="A22" s="23">
         <v>5</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="18"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="15"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="29">
+      <c r="A23" s="24">
         <v>6</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="19"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="16"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="28">
+      <c r="A24" s="23">
         <v>7</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="18"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="15"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="29">
+      <c r="A25" s="24">
         <v>8</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="19"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="28">
+      <c r="A26" s="23">
         <v>9</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="18"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="15"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29">
+      <c r="A27" s="24">
         <v>10</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="19"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="20"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="17"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="28">
+      <c r="A29" s="23">
         <v>1</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="20">
         <v>1</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="15">
         <v>41073</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="29">
+      <c r="A30" s="24">
         <v>2</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="19">
+      <c r="D30" s="21">
+        <v>1</v>
+      </c>
+      <c r="E30" s="16">
         <v>41074</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="28">
+      <c r="A31" s="23">
         <v>3</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="21"/>
+      <c r="B31" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="20">
+        <v>1</v>
+      </c>
+      <c r="E31" s="15">
+        <v>41074</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="29">
+      <c r="A32" s="24">
         <v>4</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="22"/>
+      <c r="B32" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="16">
+        <v>41094</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="28">
+      <c r="A33" s="23">
         <v>5</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="21"/>
+      <c r="B33" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="20"/>
+      <c r="E33" s="16">
+        <v>41094</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="29">
+      <c r="A34" s="24">
         <v>6</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="22"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="16"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="28">
+      <c r="A35" s="23">
         <v>7</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="21"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="15"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="29">
+      <c r="A36" s="24">
         <v>8</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="22"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="16"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="28">
+      <c r="A37" s="23">
         <v>9</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="21"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="15"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29">
+      <c r="A38" s="24">
         <v>10</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="22"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="16"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="20"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="17"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="28">
+      <c r="A40" s="23">
         <v>1</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="25">
+      <c r="D40" s="20">
         <v>1</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="15">
         <v>41069</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="29">
+      <c r="A41" s="24">
         <v>2</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="26">
+      <c r="D41" s="21">
         <v>0</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E41" s="16">
         <v>41069</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="28">
+      <c r="A42" s="23">
         <v>3</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="25">
+      <c r="D42" s="20">
         <v>0</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="15">
         <v>41069</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="29">
+      <c r="A43" s="24">
         <v>4</v>
       </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="22"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="16"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="28">
+      <c r="A44" s="23">
         <v>5</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="21"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="15"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="29">
+      <c r="A45" s="24">
         <v>6</v>
       </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="22"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="16"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="28">
+      <c r="A46" s="23">
         <v>7</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="21"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="15"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="29">
+      <c r="A47" s="24">
         <v>8</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="22"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="16"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="28">
+      <c r="A48" s="23">
         <v>9</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="21"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="15"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="29">
+      <c r="A49" s="24">
         <v>10</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="22"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="16"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="20"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="17"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="28">
+      <c r="A51" s="23">
         <v>1</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="18"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="15"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="29">
+      <c r="A52" s="24">
         <v>2</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="19"/>
+      <c r="C52" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="21"/>
+      <c r="E52" s="16"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="28">
+      <c r="A53" s="23">
         <v>3</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="21"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="15"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="29">
+      <c r="A54" s="24">
         <v>4</v>
       </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="22"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="16"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="28">
+      <c r="A55" s="23">
         <v>5</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="21"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="29">
+      <c r="A56" s="24">
         <v>6</v>
       </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="22"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="16"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="28">
+      <c r="A57" s="23">
         <v>7</v>
       </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="21"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="15"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="29">
+      <c r="A58" s="24">
         <v>8</v>
       </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="22"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="16"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="28">
+      <c r="A59" s="23">
         <v>9</v>
       </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="21"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="15"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="29">
+      <c r="A60" s="24">
         <v>10</v>
       </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="22"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="16"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="30" t="s">
+      <c r="A61" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="20"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="17"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="28">
+      <c r="A62" s="23">
         <v>1</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D62" s="25">
+      <c r="D62" s="20">
         <v>1</v>
       </c>
-      <c r="E62" s="18">
+      <c r="E62" s="15">
         <v>41073</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="29">
+      <c r="A63" s="24">
         <v>2</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="E63" s="19"/>
+      <c r="D63" s="21">
+        <v>1</v>
+      </c>
+      <c r="E63" s="16"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="28">
+      <c r="A64" s="23">
         <v>3</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D64" s="25">
+      <c r="D64" s="20">
         <v>1</v>
       </c>
-      <c r="E64" s="18">
+      <c r="E64" s="15">
         <v>41074</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="29">
+      <c r="A65" s="24">
         <v>4</v>
       </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="22"/>
+      <c r="B65" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="16">
+        <v>41091</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="28">
+      <c r="A66" s="23">
         <v>5</v>
       </c>
-      <c r="B66" s="9"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="21"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="15"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="29">
+      <c r="A67" s="24">
         <v>6</v>
       </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="22"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="16"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="28">
+      <c r="A68" s="23">
         <v>7</v>
       </c>
-      <c r="B68" s="9"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="21"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="15"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="29">
+      <c r="A69" s="24">
         <v>8</v>
       </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="22"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="16"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="28">
+      <c r="A70" s="23">
         <v>9</v>
       </c>
-      <c r="B70" s="9"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="21"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="29">
+      <c r="A71" s="24">
         <v>10</v>
       </c>
-      <c r="B71" s="11"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="22"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/To-do List - Progress Tracker.xlsx
+++ b/To-do List - Progress Tracker.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="150" windowWidth="13395" windowHeight="4935"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>Task</t>
   </si>
@@ -157,13 +157,16 @@
   </si>
   <si>
     <t>Write formal intro and content</t>
+  </si>
+  <si>
+    <t>DB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,7 +479,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -511,7 +513,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -687,27 +688,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="E1" s="31">
         <f ca="1">NOW()</f>
-        <v>41092.509014467592</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
+        <v>41092.77636747685</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="33.75">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -716,7 +717,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="32"/>
     </row>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18.75">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -724,13 +725,13 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="26.25" thickBot="1">
       <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
@@ -747,7 +748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -758,7 +759,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="23">
         <v>1</v>
       </c>
@@ -773,7 +774,7 @@
       </c>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="24">
         <v>2</v>
       </c>
@@ -788,7 +789,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="23">
         <v>3</v>
       </c>
@@ -803,7 +804,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="24">
         <v>4</v>
       </c>
@@ -818,18 +819,22 @@
         <v>41094</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="23">
         <v>5</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="D11" s="20"/>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="15">
+        <v>41094</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="24">
         <v>6</v>
       </c>
@@ -838,7 +843,7 @@
       <c r="D12" s="21"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="23">
         <v>7</v>
       </c>
@@ -847,7 +852,7 @@
       <c r="D13" s="20"/>
       <c r="E13" s="13"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="24">
         <v>8</v>
       </c>
@@ -856,7 +861,7 @@
       <c r="D14" s="21"/>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="23">
         <v>9</v>
       </c>
@@ -865,7 +870,7 @@
       <c r="D15" s="20"/>
       <c r="E15" s="13"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1">
       <c r="A16" s="24">
         <v>10</v>
       </c>
@@ -874,7 +879,7 @@
       <c r="D16" s="21"/>
       <c r="E16" s="14"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1">
       <c r="A17" s="25" t="s">
         <v>12</v>
       </c>
@@ -885,7 +890,7 @@
       <c r="D17" s="22"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="23">
         <v>1</v>
       </c>
@@ -902,7 +907,7 @@
         <v>41069</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="26">
         <v>2</v>
       </c>
@@ -917,7 +922,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="23">
         <v>3</v>
       </c>
@@ -934,7 +939,7 @@
         <v>41074</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="24">
         <v>4</v>
       </c>
@@ -943,7 +948,7 @@
       <c r="D21" s="21"/>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="23">
         <v>5</v>
       </c>
@@ -952,7 +957,7 @@
       <c r="D22" s="20"/>
       <c r="E22" s="15"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="24">
         <v>6</v>
       </c>
@@ -961,7 +966,7 @@
       <c r="D23" s="21"/>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="23">
         <v>7</v>
       </c>
@@ -970,7 +975,7 @@
       <c r="D24" s="20"/>
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="24">
         <v>8</v>
       </c>
@@ -979,7 +984,7 @@
       <c r="D25" s="21"/>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="23">
         <v>9</v>
       </c>
@@ -988,7 +993,7 @@
       <c r="D26" s="20"/>
       <c r="E26" s="15"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15.75" thickBot="1">
       <c r="A27" s="24">
         <v>10</v>
       </c>
@@ -997,7 +1002,7 @@
       <c r="D27" s="21"/>
       <c r="E27" s="16"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1">
       <c r="A28" s="25" t="s">
         <v>15</v>
       </c>
@@ -1008,7 +1013,7 @@
       <c r="D28" s="22"/>
       <c r="E28" s="17"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="23">
         <v>1</v>
       </c>
@@ -1025,7 +1030,7 @@
         <v>41073</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="24">
         <v>2</v>
       </c>
@@ -1042,7 +1047,7 @@
         <v>41074</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="23">
         <v>3</v>
       </c>
@@ -1059,7 +1064,7 @@
         <v>41074</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="24">
         <v>4</v>
       </c>
@@ -1074,7 +1079,7 @@
         <v>41094</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="23">
         <v>5</v>
       </c>
@@ -1089,7 +1094,7 @@
         <v>41094</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="24">
         <v>6</v>
       </c>
@@ -1098,7 +1103,7 @@
       <c r="D34" s="21"/>
       <c r="E34" s="16"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="23">
         <v>7</v>
       </c>
@@ -1107,7 +1112,7 @@
       <c r="D35" s="20"/>
       <c r="E35" s="15"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="24">
         <v>8</v>
       </c>
@@ -1116,7 +1121,7 @@
       <c r="D36" s="21"/>
       <c r="E36" s="16"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="23">
         <v>9</v>
       </c>
@@ -1125,7 +1130,7 @@
       <c r="D37" s="20"/>
       <c r="E37" s="15"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15.75" thickBot="1">
       <c r="A38" s="24">
         <v>10</v>
       </c>
@@ -1134,7 +1139,7 @@
       <c r="D38" s="21"/>
       <c r="E38" s="16"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="15.75" thickBot="1">
       <c r="A39" s="25" t="s">
         <v>10</v>
       </c>
@@ -1145,7 +1150,7 @@
       <c r="D39" s="22"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="23">
         <v>1</v>
       </c>
@@ -1162,7 +1167,7 @@
         <v>41069</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="24">
         <v>2</v>
       </c>
@@ -1179,7 +1184,7 @@
         <v>41069</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="23">
         <v>3</v>
       </c>
@@ -1196,7 +1201,7 @@
         <v>41069</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="24">
         <v>4</v>
       </c>
@@ -1205,7 +1210,7 @@
       <c r="D43" s="21"/>
       <c r="E43" s="16"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="23">
         <v>5</v>
       </c>
@@ -1214,7 +1219,7 @@
       <c r="D44" s="20"/>
       <c r="E44" s="15"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="24">
         <v>6</v>
       </c>
@@ -1223,7 +1228,7 @@
       <c r="D45" s="21"/>
       <c r="E45" s="16"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="23">
         <v>7</v>
       </c>
@@ -1232,7 +1237,7 @@
       <c r="D46" s="20"/>
       <c r="E46" s="15"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="24">
         <v>8</v>
       </c>
@@ -1241,7 +1246,7 @@
       <c r="D47" s="21"/>
       <c r="E47" s="16"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="23">
         <v>9</v>
       </c>
@@ -1250,7 +1255,7 @@
       <c r="D48" s="20"/>
       <c r="E48" s="15"/>
     </row>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="15.75" thickBot="1">
       <c r="A49" s="24">
         <v>10</v>
       </c>
@@ -1259,7 +1264,7 @@
       <c r="D49" s="21"/>
       <c r="E49" s="16"/>
     </row>
-    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="15.75" thickBot="1">
       <c r="A50" s="25" t="s">
         <v>16</v>
       </c>
@@ -1270,7 +1275,7 @@
       <c r="D50" s="22"/>
       <c r="E50" s="17"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="23">
         <v>1</v>
       </c>
@@ -1281,7 +1286,7 @@
       <c r="D51" s="20"/>
       <c r="E51" s="15"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="24">
         <v>2</v>
       </c>
@@ -1294,7 +1299,7 @@
       <c r="D52" s="21"/>
       <c r="E52" s="16"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="23">
         <v>3</v>
       </c>
@@ -1305,7 +1310,7 @@
       <c r="D53" s="20"/>
       <c r="E53" s="15"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="24">
         <v>4</v>
       </c>
@@ -1314,7 +1319,7 @@
       <c r="D54" s="21"/>
       <c r="E54" s="16"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="23">
         <v>5</v>
       </c>
@@ -1323,7 +1328,7 @@
       <c r="D55" s="20"/>
       <c r="E55" s="15"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="24">
         <v>6</v>
       </c>
@@ -1332,7 +1337,7 @@
       <c r="D56" s="21"/>
       <c r="E56" s="16"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="23">
         <v>7</v>
       </c>
@@ -1341,7 +1346,7 @@
       <c r="D57" s="20"/>
       <c r="E57" s="15"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="24">
         <v>8</v>
       </c>
@@ -1350,7 +1355,7 @@
       <c r="D58" s="21"/>
       <c r="E58" s="16"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="23">
         <v>9</v>
       </c>
@@ -1359,7 +1364,7 @@
       <c r="D59" s="20"/>
       <c r="E59" s="15"/>
     </row>
-    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="15.75" thickBot="1">
       <c r="A60" s="24">
         <v>10</v>
       </c>
@@ -1368,7 +1373,7 @@
       <c r="D60" s="21"/>
       <c r="E60" s="16"/>
     </row>
-    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="15.75" thickBot="1">
       <c r="A61" s="25" t="s">
         <v>16</v>
       </c>
@@ -1379,7 +1384,7 @@
       <c r="D61" s="22"/>
       <c r="E61" s="17"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="23">
         <v>1</v>
       </c>
@@ -1396,7 +1401,7 @@
         <v>41073</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" s="24">
         <v>2</v>
       </c>
@@ -1411,7 +1416,7 @@
       </c>
       <c r="E63" s="16"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" s="23">
         <v>3</v>
       </c>
@@ -1428,7 +1433,7 @@
         <v>41074</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" s="24">
         <v>4</v>
       </c>
@@ -1441,7 +1446,7 @@
         <v>41091</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" s="23">
         <v>5</v>
       </c>
@@ -1450,7 +1455,7 @@
       <c r="D66" s="20"/>
       <c r="E66" s="15"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" s="24">
         <v>6</v>
       </c>
@@ -1459,7 +1464,7 @@
       <c r="D67" s="21"/>
       <c r="E67" s="16"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" s="23">
         <v>7</v>
       </c>
@@ -1468,7 +1473,7 @@
       <c r="D68" s="20"/>
       <c r="E68" s="15"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" s="24">
         <v>8</v>
       </c>
@@ -1477,7 +1482,7 @@
       <c r="D69" s="21"/>
       <c r="E69" s="16"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" s="23">
         <v>9</v>
       </c>
@@ -1486,7 +1491,7 @@
       <c r="D70" s="20"/>
       <c r="E70" s="15"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" s="24">
         <v>10</v>
       </c>
@@ -1502,24 +1507,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/To-do List - Progress Tracker.xlsx
+++ b/To-do List - Progress Tracker.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>Task</t>
   </si>
@@ -135,15 +135,6 @@
     <t>Use LINQ builder to create schema</t>
   </si>
   <si>
-    <t>Design Use cases</t>
-  </si>
-  <si>
-    <t>Tidy up ward numbers vs. names</t>
-  </si>
-  <si>
-    <t>31/06/2012</t>
-  </si>
-  <si>
     <t>Update main document with use cases</t>
   </si>
   <si>
@@ -160,6 +151,12 @@
   </si>
   <si>
     <t>DB</t>
+  </si>
+  <si>
+    <t>Design Use cases/sample reports layout</t>
+  </si>
+  <si>
+    <t>Build lookup file-postcode V ward #</t>
   </si>
 </sst>
 </file>
@@ -691,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -705,7 +702,7 @@
     <row r="1" spans="1:5">
       <c r="E1" s="31">
         <f ca="1">NOW()</f>
-        <v>41092.77636747685</v>
+        <v>41092.908545601851</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="33.75">
@@ -774,19 +771,21 @@
       </c>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="24">
         <v>2</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="14" t="s">
-        <v>41</v>
+      <c r="D8" s="21">
+        <v>1</v>
+      </c>
+      <c r="E8" s="16">
+        <v>41092</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -794,14 +793,16 @@
         <v>3</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="15" t="s">
-        <v>41</v>
+      <c r="D9" s="20">
+        <v>1</v>
+      </c>
+      <c r="E9" s="15">
+        <v>41092</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -809,14 +810,16 @@
         <v>4</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="21"/>
+      <c r="D10" s="21">
+        <v>1</v>
+      </c>
       <c r="E10" s="16">
-        <v>41094</v>
+        <v>41092</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -824,10 +827,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="15">
@@ -1069,7 +1072,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>30</v>
@@ -1084,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>30</v>
@@ -1438,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="21"/>

--- a/To-do List - Progress Tracker.xlsx
+++ b/To-do List - Progress Tracker.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="150" windowWidth="13395" windowHeight="4935"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>Task</t>
   </si>
@@ -162,8 +162,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,6 +476,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -510,6 +511,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -685,27 +687,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E1" s="31">
         <f ca="1">NOW()</f>
-        <v>41092.908545601851</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="33.75">
+        <v>41093.88414548611</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -714,7 +716,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="32"/>
     </row>
-    <row r="3" spans="1:5" ht="18.75">
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -722,13 +724,13 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="26.25" thickBot="1">
+    <row r="5" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
@@ -745,7 +747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -756,7 +758,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>1</v>
       </c>
@@ -771,7 +773,7 @@
       </c>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <v>2</v>
       </c>
@@ -788,7 +790,7 @@
         <v>41092</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>3</v>
       </c>
@@ -805,7 +807,7 @@
         <v>41092</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>4</v>
       </c>
@@ -822,7 +824,7 @@
         <v>41092</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>5</v>
       </c>
@@ -837,7 +839,7 @@
         <v>41094</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>6</v>
       </c>
@@ -846,7 +848,7 @@
       <c r="D12" s="21"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>7</v>
       </c>
@@ -855,7 +857,7 @@
       <c r="D13" s="20"/>
       <c r="E13" s="13"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>8</v>
       </c>
@@ -864,7 +866,7 @@
       <c r="D14" s="21"/>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>9</v>
       </c>
@@ -873,7 +875,7 @@
       <c r="D15" s="20"/>
       <c r="E15" s="13"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>10</v>
       </c>
@@ -882,7 +884,7 @@
       <c r="D16" s="21"/>
       <c r="E16" s="14"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>12</v>
       </c>
@@ -893,7 +895,7 @@
       <c r="D17" s="22"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>1</v>
       </c>
@@ -910,7 +912,7 @@
         <v>41069</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>2</v>
       </c>
@@ -925,7 +927,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>3</v>
       </c>
@@ -942,7 +944,7 @@
         <v>41074</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>4</v>
       </c>
@@ -951,7 +953,7 @@
       <c r="D21" s="21"/>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>5</v>
       </c>
@@ -960,7 +962,7 @@
       <c r="D22" s="20"/>
       <c r="E22" s="15"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>6</v>
       </c>
@@ -969,7 +971,7 @@
       <c r="D23" s="21"/>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>7</v>
       </c>
@@ -978,7 +980,7 @@
       <c r="D24" s="20"/>
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>8</v>
       </c>
@@ -987,7 +989,7 @@
       <c r="D25" s="21"/>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>9</v>
       </c>
@@ -996,7 +998,7 @@
       <c r="D26" s="20"/>
       <c r="E26" s="15"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1">
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>10</v>
       </c>
@@ -1005,7 +1007,7 @@
       <c r="D27" s="21"/>
       <c r="E27" s="16"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
         <v>15</v>
       </c>
@@ -1016,7 +1018,7 @@
       <c r="D28" s="22"/>
       <c r="E28" s="17"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>1</v>
       </c>
@@ -1033,7 +1035,7 @@
         <v>41073</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>2</v>
       </c>
@@ -1050,7 +1052,7 @@
         <v>41074</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>3</v>
       </c>
@@ -1067,7 +1069,7 @@
         <v>41074</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>4</v>
       </c>
@@ -1077,12 +1079,14 @@
       <c r="C32" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="21"/>
+      <c r="D32" s="21">
+        <v>1</v>
+      </c>
       <c r="E32" s="16">
         <v>41094</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>5</v>
       </c>
@@ -1097,7 +1101,7 @@
         <v>41094</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>6</v>
       </c>
@@ -1106,7 +1110,7 @@
       <c r="D34" s="21"/>
       <c r="E34" s="16"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>7</v>
       </c>
@@ -1115,7 +1119,7 @@
       <c r="D35" s="20"/>
       <c r="E35" s="15"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
         <v>8</v>
       </c>
@@ -1124,7 +1128,7 @@
       <c r="D36" s="21"/>
       <c r="E36" s="16"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>9</v>
       </c>
@@ -1133,7 +1137,7 @@
       <c r="D37" s="20"/>
       <c r="E37" s="15"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1">
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="24">
         <v>10</v>
       </c>
@@ -1142,7 +1146,7 @@
       <c r="D38" s="21"/>
       <c r="E38" s="16"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1">
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="25" t="s">
         <v>10</v>
       </c>
@@ -1153,7 +1157,7 @@
       <c r="D39" s="22"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>1</v>
       </c>
@@ -1170,24 +1174,24 @@
         <v>41069</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="24">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="26">
         <v>2</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="29">
         <v>0</v>
       </c>
-      <c r="E41" s="16">
-        <v>41069</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="E41" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>3</v>
       </c>
@@ -1204,7 +1208,7 @@
         <v>41069</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>4</v>
       </c>
@@ -1213,7 +1217,7 @@
       <c r="D43" s="21"/>
       <c r="E43" s="16"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>5</v>
       </c>
@@ -1222,7 +1226,7 @@
       <c r="D44" s="20"/>
       <c r="E44" s="15"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>6</v>
       </c>
@@ -1231,7 +1235,7 @@
       <c r="D45" s="21"/>
       <c r="E45" s="16"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>7</v>
       </c>
@@ -1240,7 +1244,7 @@
       <c r="D46" s="20"/>
       <c r="E46" s="15"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>8</v>
       </c>
@@ -1249,7 +1253,7 @@
       <c r="D47" s="21"/>
       <c r="E47" s="16"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>9</v>
       </c>
@@ -1258,7 +1262,7 @@
       <c r="D48" s="20"/>
       <c r="E48" s="15"/>
     </row>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1">
+    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="24">
         <v>10</v>
       </c>
@@ -1267,7 +1271,7 @@
       <c r="D49" s="21"/>
       <c r="E49" s="16"/>
     </row>
-    <row r="50" spans="1:5" ht="15.75" thickBot="1">
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="25" t="s">
         <v>16</v>
       </c>
@@ -1278,7 +1282,7 @@
       <c r="D50" s="22"/>
       <c r="E50" s="17"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>1</v>
       </c>
@@ -1289,7 +1293,7 @@
       <c r="D51" s="20"/>
       <c r="E51" s="15"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>2</v>
       </c>
@@ -1302,7 +1306,7 @@
       <c r="D52" s="21"/>
       <c r="E52" s="16"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>3</v>
       </c>
@@ -1313,7 +1317,7 @@
       <c r="D53" s="20"/>
       <c r="E53" s="15"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <v>4</v>
       </c>
@@ -1322,7 +1326,7 @@
       <c r="D54" s="21"/>
       <c r="E54" s="16"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>5</v>
       </c>
@@ -1331,7 +1335,7 @@
       <c r="D55" s="20"/>
       <c r="E55" s="15"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <v>6</v>
       </c>
@@ -1340,7 +1344,7 @@
       <c r="D56" s="21"/>
       <c r="E56" s="16"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>7</v>
       </c>
@@ -1349,7 +1353,7 @@
       <c r="D57" s="20"/>
       <c r="E57" s="15"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>8</v>
       </c>
@@ -1358,7 +1362,7 @@
       <c r="D58" s="21"/>
       <c r="E58" s="16"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>9</v>
       </c>
@@ -1367,7 +1371,7 @@
       <c r="D59" s="20"/>
       <c r="E59" s="15"/>
     </row>
-    <row r="60" spans="1:5" ht="15.75" thickBot="1">
+    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="24">
         <v>10</v>
       </c>
@@ -1376,7 +1380,7 @@
       <c r="D60" s="21"/>
       <c r="E60" s="16"/>
     </row>
-    <row r="61" spans="1:5" ht="15.75" thickBot="1">
+    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="25" t="s">
         <v>16</v>
       </c>
@@ -1387,7 +1391,7 @@
       <c r="D61" s="22"/>
       <c r="E61" s="17"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>1</v>
       </c>
@@ -1404,7 +1408,7 @@
         <v>41073</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="24">
         <v>2</v>
       </c>
@@ -1419,7 +1423,7 @@
       </c>
       <c r="E63" s="16"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>3</v>
       </c>
@@ -1436,7 +1440,7 @@
         <v>41074</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="24">
         <v>4</v>
       </c>
@@ -1449,7 +1453,7 @@
         <v>41091</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>5</v>
       </c>
@@ -1458,7 +1462,7 @@
       <c r="D66" s="20"/>
       <c r="E66" s="15"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
         <v>6</v>
       </c>
@@ -1467,7 +1471,7 @@
       <c r="D67" s="21"/>
       <c r="E67" s="16"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>7</v>
       </c>
@@ -1476,7 +1480,7 @@
       <c r="D68" s="20"/>
       <c r="E68" s="15"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <v>8</v>
       </c>
@@ -1485,7 +1489,7 @@
       <c r="D69" s="21"/>
       <c r="E69" s="16"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>9</v>
       </c>
@@ -1494,7 +1498,7 @@
       <c r="D70" s="20"/>
       <c r="E70" s="15"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="24">
         <v>10</v>
       </c>
@@ -1510,24 +1514,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/To-do List - Progress Tracker.xlsx
+++ b/To-do List - Progress Tracker.xlsx
@@ -15,8 +15,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Fintan Costello</author>
+  </authors>
+  <commentList>
+    <comment ref="B34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fintan Costello:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+contributions done, check with Eoin about votes</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>Task</t>
   </si>
@@ -157,13 +191,16 @@
   </si>
   <si>
     <t>Build lookup file-postcode V ward #</t>
+  </si>
+  <si>
+    <t>Tidy up data formatting in Excel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +245,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -687,11 +737,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,7 +754,7 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E1" s="31">
         <f ca="1">NOW()</f>
-        <v>41093.88414548611</v>
+        <v>41094.689958101852</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
@@ -1105,10 +1155,18 @@
       <c r="A34" s="24">
         <v>6</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="16"/>
+      <c r="B34" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="16">
+        <v>41094</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
@@ -1510,6 +1568,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/To-do List - Progress Tracker.xlsx
+++ b/To-do List - Progress Tracker.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>Task</t>
   </si>
@@ -194,6 +194,18 @@
   </si>
   <si>
     <t>Tidy up data formatting in Excel</t>
+  </si>
+  <si>
+    <t>Test Driven Development</t>
+  </si>
+  <si>
+    <t>Test Driven Development Demo</t>
+  </si>
+  <si>
+    <t>Unit Test Suites</t>
+  </si>
+  <si>
+    <t>Update test section of document</t>
   </si>
 </sst>
 </file>
@@ -738,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,7 +766,7 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E1" s="31">
         <f ca="1">NOW()</f>
-        <v>41094.689958101852</v>
+        <v>41094.781497569442</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
@@ -1443,7 +1455,7 @@
         <v>16</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="22"/>
@@ -1454,116 +1466,183 @@
         <v>1</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D62" s="20">
-        <v>1</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D62" s="20"/>
       <c r="E62" s="15">
-        <v>41073</v>
+        <v>41097</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="24">
+      <c r="A63" s="23">
+        <v>3</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="20"/>
+      <c r="E63" s="15">
+        <v>41097</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="24">
         <v>2</v>
       </c>
-      <c r="B63" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="21">
-        <v>1</v>
-      </c>
-      <c r="E63" s="16"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="23">
-        <v>3</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D64" s="20">
-        <v>1</v>
-      </c>
-      <c r="E64" s="15">
-        <v>41074</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="21"/>
+      <c r="E64" s="16">
+        <v>41104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="24">
         <v>4</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>42</v>
-      </c>
+      <c r="B65" s="10"/>
       <c r="C65" s="11"/>
       <c r="D65" s="21"/>
-      <c r="E65" s="16">
-        <v>41091</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="23">
+      <c r="E65" s="16"/>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="12"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="17"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="23">
+        <v>1</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" s="20">
+        <v>1</v>
+      </c>
+      <c r="E67" s="15">
+        <v>41073</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="24">
+        <v>2</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="21">
+        <v>1</v>
+      </c>
+      <c r="E68" s="16"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="23">
+        <v>3</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" s="20">
+        <v>1</v>
+      </c>
+      <c r="E69" s="15">
+        <v>41074</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="24">
+        <v>4</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" s="21"/>
+      <c r="E70" s="16">
+        <v>41097</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="23">
         <v>5</v>
       </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="15"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="24">
+      <c r="B71" s="8"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="15"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="24">
         <v>6</v>
       </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="16"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="23">
+      <c r="B72" s="10"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="16"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="23">
         <v>7</v>
       </c>
-      <c r="B68" s="8"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="15"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="24">
+      <c r="B73" s="8"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="15"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="24">
         <v>8</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="16"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="23">
+      <c r="B74" s="10"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="16"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="23">
         <v>9</v>
       </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="15"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="24">
+      <c r="B75" s="8"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="15"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="24">
         <v>10</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="16"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/To-do List - Progress Tracker.xlsx
+++ b/To-do List - Progress Tracker.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="150" windowWidth="13395" windowHeight="4935"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
   <si>
     <t>Task</t>
   </si>
@@ -121,9 +121,6 @@
     <t>Adding CRUD functionality</t>
   </si>
   <si>
-    <t>Connect with DB</t>
-  </si>
-  <si>
     <t>MVC</t>
   </si>
   <si>
@@ -206,13 +203,19 @@
   </si>
   <si>
     <t>Update test section of document</t>
+  </si>
+  <si>
+    <t>update election data</t>
+  </si>
+  <si>
+    <t>EÓL/DB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,7 +541,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -573,7 +575,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -749,27 +750,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="E1" s="31">
         <f ca="1">NOW()</f>
-        <v>41094.781497569442</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
+        <v>41094.913176388887</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="33.75">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -778,7 +779,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="32"/>
     </row>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18.75">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -786,13 +787,13 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="26.25" thickBot="1">
       <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
@@ -809,7 +810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -820,7 +821,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="23">
         <v>1</v>
       </c>
@@ -835,12 +836,12 @@
       </c>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="24">
         <v>2</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>19</v>
@@ -852,12 +853,12 @@
         <v>41092</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="23">
         <v>3</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>19</v>
@@ -869,12 +870,12 @@
         <v>41092</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="24">
         <v>4</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>19</v>
@@ -886,22 +887,24 @@
         <v>41092</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="23">
         <v>5</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="20"/>
+      <c r="D11" s="20">
+        <v>0.1</v>
+      </c>
       <c r="E11" s="15">
-        <v>41094</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="24">
         <v>6</v>
       </c>
@@ -910,7 +913,7 @@
       <c r="D12" s="21"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="23">
         <v>7</v>
       </c>
@@ -919,7 +922,7 @@
       <c r="D13" s="20"/>
       <c r="E13" s="13"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="24">
         <v>8</v>
       </c>
@@ -928,7 +931,7 @@
       <c r="D14" s="21"/>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="23">
         <v>9</v>
       </c>
@@ -937,7 +940,7 @@
       <c r="D15" s="20"/>
       <c r="E15" s="13"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1">
       <c r="A16" s="24">
         <v>10</v>
       </c>
@@ -946,7 +949,7 @@
       <c r="D16" s="21"/>
       <c r="E16" s="14"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1">
       <c r="A17" s="25" t="s">
         <v>12</v>
       </c>
@@ -957,7 +960,7 @@
       <c r="D17" s="22"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="23">
         <v>1</v>
       </c>
@@ -974,7 +977,7 @@
         <v>41069</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="26">
         <v>2</v>
       </c>
@@ -986,18 +989,18 @@
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="23">
         <v>3</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="20">
         <v>1</v>
@@ -1006,7 +1009,7 @@
         <v>41074</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="24">
         <v>4</v>
       </c>
@@ -1015,7 +1018,7 @@
       <c r="D21" s="21"/>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="23">
         <v>5</v>
       </c>
@@ -1024,7 +1027,7 @@
       <c r="D22" s="20"/>
       <c r="E22" s="15"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="24">
         <v>6</v>
       </c>
@@ -1033,7 +1036,7 @@
       <c r="D23" s="21"/>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="23">
         <v>7</v>
       </c>
@@ -1042,7 +1045,7 @@
       <c r="D24" s="20"/>
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="24">
         <v>8</v>
       </c>
@@ -1051,7 +1054,7 @@
       <c r="D25" s="21"/>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="23">
         <v>9</v>
       </c>
@@ -1060,7 +1063,7 @@
       <c r="D26" s="20"/>
       <c r="E26" s="15"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15.75" thickBot="1">
       <c r="A27" s="24">
         <v>10</v>
       </c>
@@ -1069,7 +1072,7 @@
       <c r="D27" s="21"/>
       <c r="E27" s="16"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1">
       <c r="A28" s="25" t="s">
         <v>15</v>
       </c>
@@ -1080,15 +1083,15 @@
       <c r="D28" s="22"/>
       <c r="E28" s="17"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="23">
         <v>1</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="D29" s="20">
         <v>1</v>
@@ -1097,15 +1100,15 @@
         <v>41073</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="24">
         <v>2</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" s="21">
         <v>1</v>
@@ -1114,15 +1117,15 @@
         <v>41074</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="23">
         <v>3</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" s="20">
         <v>1</v>
@@ -1131,15 +1134,15 @@
         <v>41074</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="24">
         <v>4</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" s="21">
         <v>1</v>
@@ -1148,48 +1151,56 @@
         <v>41094</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="23">
         <v>5</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D33" s="20"/>
       <c r="E33" s="16">
         <v>41094</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="24">
         <v>6</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D34" s="21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E34" s="16">
         <v>41094</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="23">
         <v>7</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="15"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="E35" s="15">
+        <v>41095</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="24">
         <v>8</v>
       </c>
@@ -1198,7 +1209,7 @@
       <c r="D36" s="21"/>
       <c r="E36" s="16"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="23">
         <v>9</v>
       </c>
@@ -1207,7 +1218,7 @@
       <c r="D37" s="20"/>
       <c r="E37" s="15"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15.75" thickBot="1">
       <c r="A38" s="24">
         <v>10</v>
       </c>
@@ -1216,7 +1227,7 @@
       <c r="D38" s="21"/>
       <c r="E38" s="16"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="15.75" thickBot="1">
       <c r="A39" s="25" t="s">
         <v>10</v>
       </c>
@@ -1227,7 +1238,7 @@
       <c r="D39" s="22"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="23">
         <v>1</v>
       </c>
@@ -1244,7 +1255,7 @@
         <v>41069</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="26">
         <v>2</v>
       </c>
@@ -1258,27 +1269,19 @@
         <v>0</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="23">
         <v>3</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="20">
-        <v>0</v>
-      </c>
-      <c r="E42" s="15">
-        <v>41069</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="8"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="24">
         <v>4</v>
       </c>
@@ -1287,7 +1290,7 @@
       <c r="D43" s="21"/>
       <c r="E43" s="16"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="23">
         <v>5</v>
       </c>
@@ -1296,7 +1299,7 @@
       <c r="D44" s="20"/>
       <c r="E44" s="15"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="24">
         <v>6</v>
       </c>
@@ -1305,7 +1308,7 @@
       <c r="D45" s="21"/>
       <c r="E45" s="16"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="23">
         <v>7</v>
       </c>
@@ -1314,7 +1317,7 @@
       <c r="D46" s="20"/>
       <c r="E46" s="15"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="24">
         <v>8</v>
       </c>
@@ -1323,7 +1326,7 @@
       <c r="D47" s="21"/>
       <c r="E47" s="16"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="23">
         <v>9</v>
       </c>
@@ -1332,7 +1335,7 @@
       <c r="D48" s="20"/>
       <c r="E48" s="15"/>
     </row>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="15.75" thickBot="1">
       <c r="A49" s="24">
         <v>10</v>
       </c>
@@ -1341,53 +1344,57 @@
       <c r="D49" s="21"/>
       <c r="E49" s="16"/>
     </row>
-    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="15.75" thickBot="1">
       <c r="A50" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="22"/>
       <c r="E50" s="17"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="23">
         <v>1</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="D51" s="20"/>
-      <c r="E51" s="15"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E51" s="15">
+        <v>41097</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="24">
         <v>2</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D52" s="21"/>
       <c r="E52" s="16"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="23">
         <v>3</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="20"/>
       <c r="E53" s="15"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="24">
         <v>4</v>
       </c>
@@ -1396,7 +1403,7 @@
       <c r="D54" s="21"/>
       <c r="E54" s="16"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="23">
         <v>5</v>
       </c>
@@ -1405,7 +1412,7 @@
       <c r="D55" s="20"/>
       <c r="E55" s="15"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="24">
         <v>6</v>
       </c>
@@ -1414,7 +1421,7 @@
       <c r="D56" s="21"/>
       <c r="E56" s="16"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="23">
         <v>7</v>
       </c>
@@ -1423,7 +1430,7 @@
       <c r="D57" s="20"/>
       <c r="E57" s="15"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="24">
         <v>8</v>
       </c>
@@ -1432,7 +1439,7 @@
       <c r="D58" s="21"/>
       <c r="E58" s="16"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="23">
         <v>9</v>
       </c>
@@ -1441,7 +1448,7 @@
       <c r="D59" s="20"/>
       <c r="E59" s="15"/>
     </row>
-    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="15.75" thickBot="1">
       <c r="A60" s="24">
         <v>10</v>
       </c>
@@ -1450,63 +1457,63 @@
       <c r="D60" s="21"/>
       <c r="E60" s="16"/>
     </row>
-    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="15.75" thickBot="1">
       <c r="A61" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="22"/>
       <c r="E61" s="17"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="23">
         <v>1</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D62" s="20"/>
       <c r="E62" s="15">
         <v>41097</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" s="23">
         <v>3</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="15">
         <v>41097</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" s="24">
         <v>2</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D64" s="21"/>
       <c r="E64" s="16">
         <v>41104</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="15.75" thickBot="1">
       <c r="A65" s="24">
         <v>4</v>
       </c>
@@ -1515,26 +1522,26 @@
       <c r="D65" s="21"/>
       <c r="E65" s="16"/>
     </row>
-    <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="15.75" thickBot="1">
       <c r="A66" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="22"/>
       <c r="E66" s="17"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" s="23">
         <v>1</v>
       </c>
       <c r="B67" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="D67" s="20">
         <v>1</v>
@@ -1543,12 +1550,12 @@
         <v>41073</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" s="24">
         <v>2</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C68" s="11" t="s">
         <v>7</v>
@@ -1558,15 +1565,15 @@
       </c>
       <c r="E68" s="16"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" s="23">
         <v>3</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D69" s="20">
         <v>1</v>
@@ -1575,22 +1582,22 @@
         <v>41074</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" s="24">
         <v>4</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D70" s="21"/>
       <c r="E70" s="16">
         <v>41097</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" s="23">
         <v>5</v>
       </c>
@@ -1599,7 +1606,7 @@
       <c r="D71" s="20"/>
       <c r="E71" s="15"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" s="24">
         <v>6</v>
       </c>
@@ -1608,7 +1615,7 @@
       <c r="D72" s="21"/>
       <c r="E72" s="16"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" s="23">
         <v>7</v>
       </c>
@@ -1617,7 +1624,7 @@
       <c r="D73" s="20"/>
       <c r="E73" s="15"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" s="24">
         <v>8</v>
       </c>
@@ -1626,7 +1633,7 @@
       <c r="D74" s="21"/>
       <c r="E74" s="16"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" s="23">
         <v>9</v>
       </c>
@@ -1635,7 +1642,7 @@
       <c r="D75" s="20"/>
       <c r="E75" s="15"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" s="24">
         <v>10</v>
       </c>
@@ -1652,24 +1659,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/To-do List - Progress Tracker.xlsx
+++ b/To-do List - Progress Tracker.xlsx
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -767,7 +767,7 @@
     <row r="1" spans="1:5">
       <c r="E1" s="31">
         <f ca="1">NOW()</f>
-        <v>41094.913176388887</v>
+        <v>41097.537710763892</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="33.75">
@@ -1194,7 +1194,7 @@
         <v>52</v>
       </c>
       <c r="D35" s="20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E35" s="15">
         <v>41095</v>

--- a/To-do List - Progress Tracker.xlsx
+++ b/To-do List - Progress Tracker.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="150" windowWidth="13395" windowHeight="4935"/>
@@ -11,42 +11,8 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Fintan Costello</author>
-  </authors>
-  <commentList>
-    <comment ref="B34" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Fintan Costello:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-contributions done, check with Eoin about votes</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -214,8 +180,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,19 +226,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -541,6 +494,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -575,6 +529,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -750,27 +705,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E1" s="31">
         <f ca="1">NOW()</f>
-        <v>41097.537710763892</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="33.75">
+        <v>41099.809456134259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -779,7 +734,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="32"/>
     </row>
-    <row r="3" spans="1:5" ht="18.75">
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -787,13 +742,13 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="26.25" thickBot="1">
+    <row r="5" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
@@ -810,7 +765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -821,7 +776,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>1</v>
       </c>
@@ -836,7 +791,7 @@
       </c>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <v>2</v>
       </c>
@@ -853,7 +808,7 @@
         <v>41092</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>3</v>
       </c>
@@ -870,7 +825,7 @@
         <v>41092</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>4</v>
       </c>
@@ -887,7 +842,7 @@
         <v>41092</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>5</v>
       </c>
@@ -904,7 +859,7 @@
         <v>41117</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>6</v>
       </c>
@@ -913,7 +868,7 @@
       <c r="D12" s="21"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>7</v>
       </c>
@@ -922,7 +877,7 @@
       <c r="D13" s="20"/>
       <c r="E13" s="13"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>8</v>
       </c>
@@ -931,7 +886,7 @@
       <c r="D14" s="21"/>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>9</v>
       </c>
@@ -940,7 +895,7 @@
       <c r="D15" s="20"/>
       <c r="E15" s="13"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>10</v>
       </c>
@@ -949,7 +904,7 @@
       <c r="D16" s="21"/>
       <c r="E16" s="14"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>12</v>
       </c>
@@ -960,7 +915,7 @@
       <c r="D17" s="22"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>1</v>
       </c>
@@ -977,7 +932,7 @@
         <v>41069</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>2</v>
       </c>
@@ -992,7 +947,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>3</v>
       </c>
@@ -1009,7 +964,7 @@
         <v>41074</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>4</v>
       </c>
@@ -1018,7 +973,7 @@
       <c r="D21" s="21"/>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>5</v>
       </c>
@@ -1027,7 +982,7 @@
       <c r="D22" s="20"/>
       <c r="E22" s="15"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>6</v>
       </c>
@@ -1036,7 +991,7 @@
       <c r="D23" s="21"/>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>7</v>
       </c>
@@ -1045,7 +1000,7 @@
       <c r="D24" s="20"/>
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>8</v>
       </c>
@@ -1054,7 +1009,7 @@
       <c r="D25" s="21"/>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>9</v>
       </c>
@@ -1063,7 +1018,7 @@
       <c r="D26" s="20"/>
       <c r="E26" s="15"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1">
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>10</v>
       </c>
@@ -1072,7 +1027,7 @@
       <c r="D27" s="21"/>
       <c r="E27" s="16"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
         <v>15</v>
       </c>
@@ -1083,7 +1038,7 @@
       <c r="D28" s="22"/>
       <c r="E28" s="17"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>1</v>
       </c>
@@ -1100,7 +1055,7 @@
         <v>41073</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>2</v>
       </c>
@@ -1117,7 +1072,7 @@
         <v>41074</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>3</v>
       </c>
@@ -1134,7 +1089,7 @@
         <v>41074</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>4</v>
       </c>
@@ -1151,7 +1106,7 @@
         <v>41094</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>5</v>
       </c>
@@ -1161,12 +1116,14 @@
       <c r="C33" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="20"/>
+      <c r="D33" s="20">
+        <v>1</v>
+      </c>
       <c r="E33" s="16">
         <v>41094</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>6</v>
       </c>
@@ -1183,7 +1140,7 @@
         <v>41094</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>7</v>
       </c>
@@ -1200,7 +1157,7 @@
         <v>41095</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
         <v>8</v>
       </c>
@@ -1209,7 +1166,7 @@
       <c r="D36" s="21"/>
       <c r="E36" s="16"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>9</v>
       </c>
@@ -1218,7 +1175,7 @@
       <c r="D37" s="20"/>
       <c r="E37" s="15"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1">
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="24">
         <v>10</v>
       </c>
@@ -1227,7 +1184,7 @@
       <c r="D38" s="21"/>
       <c r="E38" s="16"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1">
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="25" t="s">
         <v>10</v>
       </c>
@@ -1238,7 +1195,7 @@
       <c r="D39" s="22"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>1</v>
       </c>
@@ -1255,7 +1212,7 @@
         <v>41069</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="26">
         <v>2</v>
       </c>
@@ -1272,7 +1229,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>3</v>
       </c>
@@ -1281,7 +1238,7 @@
       <c r="D42" s="20"/>
       <c r="E42" s="15"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>4</v>
       </c>
@@ -1290,7 +1247,7 @@
       <c r="D43" s="21"/>
       <c r="E43" s="16"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>5</v>
       </c>
@@ -1299,7 +1256,7 @@
       <c r="D44" s="20"/>
       <c r="E44" s="15"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>6</v>
       </c>
@@ -1308,7 +1265,7 @@
       <c r="D45" s="21"/>
       <c r="E45" s="16"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>7</v>
       </c>
@@ -1317,7 +1274,7 @@
       <c r="D46" s="20"/>
       <c r="E46" s="15"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>8</v>
       </c>
@@ -1326,7 +1283,7 @@
       <c r="D47" s="21"/>
       <c r="E47" s="16"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>9</v>
       </c>
@@ -1335,7 +1292,7 @@
       <c r="D48" s="20"/>
       <c r="E48" s="15"/>
     </row>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1">
+    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="24">
         <v>10</v>
       </c>
@@ -1344,7 +1301,7 @@
       <c r="D49" s="21"/>
       <c r="E49" s="16"/>
     </row>
-    <row r="50" spans="1:5" ht="15.75" thickBot="1">
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="25" t="s">
         <v>16</v>
       </c>
@@ -1355,7 +1312,7 @@
       <c r="D50" s="22"/>
       <c r="E50" s="17"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>1</v>
       </c>
@@ -1370,7 +1327,7 @@
         <v>41097</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>2</v>
       </c>
@@ -1383,7 +1340,7 @@
       <c r="D52" s="21"/>
       <c r="E52" s="16"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>3</v>
       </c>
@@ -1394,7 +1351,7 @@
       <c r="D53" s="20"/>
       <c r="E53" s="15"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <v>4</v>
       </c>
@@ -1403,7 +1360,7 @@
       <c r="D54" s="21"/>
       <c r="E54" s="16"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>5</v>
       </c>
@@ -1412,7 +1369,7 @@
       <c r="D55" s="20"/>
       <c r="E55" s="15"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <v>6</v>
       </c>
@@ -1421,7 +1378,7 @@
       <c r="D56" s="21"/>
       <c r="E56" s="16"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>7</v>
       </c>
@@ -1430,7 +1387,7 @@
       <c r="D57" s="20"/>
       <c r="E57" s="15"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>8</v>
       </c>
@@ -1439,7 +1396,7 @@
       <c r="D58" s="21"/>
       <c r="E58" s="16"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>9</v>
       </c>
@@ -1448,7 +1405,7 @@
       <c r="D59" s="20"/>
       <c r="E59" s="15"/>
     </row>
-    <row r="60" spans="1:5" ht="15.75" thickBot="1">
+    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="24">
         <v>10</v>
       </c>
@@ -1457,7 +1414,7 @@
       <c r="D60" s="21"/>
       <c r="E60" s="16"/>
     </row>
-    <row r="61" spans="1:5" ht="15.75" thickBot="1">
+    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="25" t="s">
         <v>16</v>
       </c>
@@ -1468,7 +1425,7 @@
       <c r="D61" s="22"/>
       <c r="E61" s="17"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>1</v>
       </c>
@@ -1483,7 +1440,7 @@
         <v>41097</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>3</v>
       </c>
@@ -1498,7 +1455,7 @@
         <v>41097</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
         <v>2</v>
       </c>
@@ -1513,7 +1470,7 @@
         <v>41104</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.75" thickBot="1">
+    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="24">
         <v>4</v>
       </c>
@@ -1522,7 +1479,7 @@
       <c r="D65" s="21"/>
       <c r="E65" s="16"/>
     </row>
-    <row r="66" spans="1:5" ht="15.75" thickBot="1">
+    <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="25" t="s">
         <v>16</v>
       </c>
@@ -1533,7 +1490,7 @@
       <c r="D66" s="22"/>
       <c r="E66" s="17"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>1</v>
       </c>
@@ -1550,7 +1507,7 @@
         <v>41073</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
         <v>2</v>
       </c>
@@ -1565,7 +1522,7 @@
       </c>
       <c r="E68" s="16"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <v>3</v>
       </c>
@@ -1582,7 +1539,7 @@
         <v>41074</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="24">
         <v>4</v>
       </c>
@@ -1597,7 +1554,7 @@
         <v>41097</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <v>5</v>
       </c>
@@ -1606,7 +1563,7 @@
       <c r="D71" s="20"/>
       <c r="E71" s="15"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="24">
         <v>6</v>
       </c>
@@ -1615,7 +1572,7 @@
       <c r="D72" s="21"/>
       <c r="E72" s="16"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>7</v>
       </c>
@@ -1624,7 +1581,7 @@
       <c r="D73" s="20"/>
       <c r="E73" s="15"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="24">
         <v>8</v>
       </c>
@@ -1633,7 +1590,7 @@
       <c r="D74" s="21"/>
       <c r="E74" s="16"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>9</v>
       </c>
@@ -1642,7 +1599,7 @@
       <c r="D75" s="20"/>
       <c r="E75" s="15"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="24">
         <v>10</v>
       </c>
@@ -1654,29 +1611,28 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
